--- a/tests/databooks/databook_dt.xlsx
+++ b/tests/databooks/databook_dt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D218B969-68F6-1448-93AC-877D0B65EE26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D48EF9F-285F-E544-942B-2187FF1D394B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>Diagnosed people</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Adults</t>
+  </si>
+  <si>
+    <t>All diagnosed</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +562,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,13 +575,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -603,11 +603,11 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -618,13 +618,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -646,11 +646,11 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -661,13 +661,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -689,11 +689,11 @@
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -704,13 +704,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -732,11 +732,11 @@
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
